--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik juli 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik juli 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -745,7 +745,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -760,25 +760,16 @@
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -807,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,7 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -887,16 +878,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7A999A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -933,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,8 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1014,22 +993,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3889,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9141ED83-2253-4DDA-AD0D-9EFAF62C8CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD8BEE8-957F-4701-9403-077AB1E72CDF}">
   <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
@@ -4259,9 +4246,6 @@
       <c r="G16" s="35">
         <v>2143.28</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
@@ -4286,9 +4270,6 @@
       <c r="G17" s="35">
         <v>1265.44</v>
       </c>
-      <c r="H17" s="43" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
@@ -5809,7 +5790,7 @@
       <c r="B81" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="40" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="37">
@@ -5833,7 +5814,7 @@
       <c r="B82" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="40" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="37">
@@ -5857,7 +5838,7 @@
       <c r="B83" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="41" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="37">
@@ -5881,7 +5862,7 @@
       <c r="B84" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="41" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="37">
@@ -5905,7 +5886,7 @@
       <c r="B85" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="41" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="37">
@@ -6046,7 +6027,7 @@
       <c r="A91" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="44">
+      <c r="B91" s="42">
         <v>3040</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -6054,11 +6035,11 @@
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="45">
+      <c r="F91" s="43">
         <f>SUM(F7:F90)</f>
         <v>2200</v>
       </c>
-      <c r="G91" s="46">
+      <c r="G91" s="44">
         <f>SUM(G7:G90)</f>
         <v>98654.21999999999</v>
       </c>
@@ -6383,7 +6364,7 @@
       <c r="A106" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="44">
+      <c r="B106" s="42">
         <v>3040</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -6391,11 +6372,11 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="45">
+      <c r="F106" s="43">
         <f>SUM(F94:F105)</f>
         <v>1526</v>
       </c>
-      <c r="G106" s="46">
+      <c r="G106" s="44">
         <f>SUM(G94:G105)</f>
         <v>47355.18000000001</v>
       </c>
@@ -6428,11 +6409,11 @@
         <v>223</v>
       </c>
       <c r="E108" s="2"/>
-      <c r="F108" s="45">
+      <c r="F108" s="43">
         <f>+F91+F106</f>
         <v>3726</v>
       </c>
-      <c r="G108" s="46">
+      <c r="G108" s="44">
         <f>+G91+G106</f>
         <v>146009.4</v>
       </c>
@@ -6445,11 +6426,11 @@
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="47">
+      <c r="F109" s="45">
         <f>+F106/F108</f>
         <v>0.4095544820182501</v>
       </c>
-      <c r="G109" s="47">
+      <c r="G109" s="45">
         <f>+G106/G108</f>
         <v>0.324329666446133</v>
       </c>
@@ -6465,7 +6446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A612C26-570D-4E62-8558-416E1781591C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65738-6EAA-43B1-8341-6E6480573997}">
   <dimension ref="A2:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
@@ -6530,20 +6511,20 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="F6" s="53" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>10</v>
@@ -6553,10 +6534,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
@@ -6565,7 +6546,7 @@
       <c r="E7" s="54">
         <v>1</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="56">
         <f>+D7*E7</f>
         <v>1</v>
       </c>
@@ -6577,10 +6558,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="13">
@@ -6589,7 +6570,7 @@
       <c r="E8" s="54">
         <v>4</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="56">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -6601,10 +6582,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="13">
@@ -6613,7 +6594,7 @@
       <c r="E9" s="54">
         <v>5</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6625,10 +6606,10 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="13">
@@ -6637,7 +6618,7 @@
       <c r="E10" s="54">
         <v>3</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6649,10 +6630,10 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="13">
@@ -6661,7 +6642,7 @@
       <c r="E11" s="54">
         <v>46</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -6673,10 +6654,10 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="13">
@@ -6685,7 +6666,7 @@
       <c r="E12" s="54">
         <v>24</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -6697,10 +6678,10 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="13">
@@ -6709,7 +6690,7 @@
       <c r="E13" s="54">
         <v>4</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -6721,10 +6702,10 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="13">
@@ -6733,7 +6714,7 @@
       <c r="E14" s="54">
         <v>7</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6745,10 +6726,10 @@
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="13">
@@ -6757,7 +6738,7 @@
       <c r="E15" s="54">
         <v>27</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="56">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -6769,10 +6750,10 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="13">
@@ -6781,7 +6762,7 @@
       <c r="E16" s="54">
         <v>8</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -6793,10 +6774,10 @@
       <c r="A17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="13">
@@ -6805,7 +6786,7 @@
       <c r="E17" s="54">
         <v>22</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="56">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -6817,10 +6798,10 @@
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="13">
@@ -6829,7 +6810,7 @@
       <c r="E18" s="54">
         <v>10</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="56">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -6841,10 +6822,10 @@
       <c r="A19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="13">
@@ -6853,7 +6834,7 @@
       <c r="E19" s="54">
         <v>3</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6865,10 +6846,10 @@
       <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="13">
@@ -6877,7 +6858,7 @@
       <c r="E20" s="54">
         <v>3</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6889,10 +6870,10 @@
       <c r="A21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="13">
@@ -6901,7 +6882,7 @@
       <c r="E21" s="54">
         <v>5</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6913,10 +6894,10 @@
       <c r="A22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="13">
@@ -6925,7 +6906,7 @@
       <c r="E22" s="54">
         <v>3</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6937,10 +6918,10 @@
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="13">
@@ -6949,7 +6930,7 @@
       <c r="E23" s="54">
         <v>1</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6961,10 +6942,10 @@
       <c r="A24" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="13">
@@ -6973,7 +6954,7 @@
       <c r="E24" s="54">
         <v>15</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6985,10 +6966,10 @@
       <c r="A25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="13">
@@ -6997,7 +6978,7 @@
       <c r="E25" s="54">
         <v>13</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="56">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -7009,10 +6990,10 @@
       <c r="A26" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="13">
@@ -7021,7 +7002,7 @@
       <c r="E26" s="54">
         <v>7</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7033,10 +7014,10 @@
       <c r="A27" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="13">
@@ -7045,7 +7026,7 @@
       <c r="E27" s="54">
         <v>9</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="56">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -7057,10 +7038,10 @@
       <c r="A28" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="51" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="13">
@@ -7069,7 +7050,7 @@
       <c r="E28" s="54">
         <v>3</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7081,10 +7062,10 @@
       <c r="A29" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="13">
@@ -7093,7 +7074,7 @@
       <c r="E29" s="54">
         <v>4</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7105,10 +7086,10 @@
       <c r="A30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="13">
@@ -7117,7 +7098,7 @@
       <c r="E30" s="54">
         <v>3</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7129,10 +7110,10 @@
       <c r="A31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="13">
@@ -7141,7 +7122,7 @@
       <c r="E31" s="54">
         <v>27</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="56">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -7153,10 +7134,10 @@
       <c r="A32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="51" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="13">
@@ -7165,7 +7146,7 @@
       <c r="E32" s="54">
         <v>10</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="56">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -7177,10 +7158,10 @@
       <c r="A33" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="51" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="13">
@@ -7189,7 +7170,7 @@
       <c r="E33" s="54">
         <v>1</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7201,10 +7182,10 @@
       <c r="A34" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="51" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="13">
@@ -7213,7 +7194,7 @@
       <c r="E34" s="54">
         <v>2</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7225,10 +7206,10 @@
       <c r="A35" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="51" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="13">
@@ -7237,7 +7218,7 @@
       <c r="E35" s="54">
         <v>9</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7249,10 +7230,10 @@
       <c r="A36" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="51" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="13">
@@ -7261,7 +7242,7 @@
       <c r="E36" s="54">
         <v>5</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7273,10 +7254,10 @@
       <c r="A37" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="51" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="13">
@@ -7285,7 +7266,7 @@
       <c r="E37" s="54">
         <v>26</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="56">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -7297,10 +7278,10 @@
       <c r="A38" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="13">
@@ -7309,7 +7290,7 @@
       <c r="E38" s="54">
         <v>2</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7321,10 +7302,10 @@
       <c r="A39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="51" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="13">
@@ -7333,7 +7314,7 @@
       <c r="E39" s="54">
         <v>69</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="56">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -7345,10 +7326,10 @@
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="13">
@@ -7357,7 +7338,7 @@
       <c r="E40" s="54">
         <v>4</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7369,10 +7350,10 @@
       <c r="A41" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="13">
@@ -7381,7 +7362,7 @@
       <c r="E41" s="54">
         <v>16</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -7393,10 +7374,10 @@
       <c r="A42" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="51" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="13">
@@ -7405,7 +7386,7 @@
       <c r="E42" s="54">
         <v>8</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="56">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7417,10 +7398,10 @@
       <c r="A43" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="51" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="13">
@@ -7429,7 +7410,7 @@
       <c r="E43" s="54">
         <v>4</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7441,10 +7422,10 @@
       <c r="A44" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="51" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="13">
@@ -7453,7 +7434,7 @@
       <c r="E44" s="54">
         <v>1</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7465,10 +7446,10 @@
       <c r="A45" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13">
@@ -7477,7 +7458,7 @@
       <c r="E45" s="54">
         <v>55</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -7489,10 +7470,10 @@
       <c r="A46" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="51" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="13">
@@ -7501,7 +7482,7 @@
       <c r="E46" s="54">
         <v>2</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7513,10 +7494,10 @@
       <c r="A47" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="13">
@@ -7525,7 +7506,7 @@
       <c r="E47" s="54">
         <v>25</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7537,10 +7518,10 @@
       <c r="A48" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="51" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="13">
@@ -7549,7 +7530,7 @@
       <c r="E48" s="54">
         <v>4</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7561,10 +7542,10 @@
       <c r="A49" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="51" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="13">
@@ -7573,7 +7554,7 @@
       <c r="E49" s="54">
         <v>24</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F49" s="56">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -7585,10 +7566,10 @@
       <c r="A50" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="13">
@@ -7597,7 +7578,7 @@
       <c r="E50" s="54">
         <v>38</v>
       </c>
-      <c r="F50" s="55">
+      <c r="F50" s="56">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -7609,10 +7590,10 @@
       <c r="A51" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="13">
@@ -7621,7 +7602,7 @@
       <c r="E51" s="54">
         <v>2</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F51" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7633,10 +7614,10 @@
       <c r="A52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="51" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="13">
@@ -7645,7 +7626,7 @@
       <c r="E52" s="54">
         <v>2</v>
       </c>
-      <c r="F52" s="55">
+      <c r="F52" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7657,10 +7638,10 @@
       <c r="A53" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="13">
@@ -7669,7 +7650,7 @@
       <c r="E53" s="54">
         <v>3</v>
       </c>
-      <c r="F53" s="55">
+      <c r="F53" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7681,10 +7662,10 @@
       <c r="A54" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="51" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="13">
@@ -7693,7 +7674,7 @@
       <c r="E54" s="54">
         <v>11</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -7705,10 +7686,10 @@
       <c r="A55" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="51" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="13">
@@ -7717,7 +7698,7 @@
       <c r="E55" s="54">
         <v>10</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F55" s="56">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -7729,10 +7710,10 @@
       <c r="A56" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="13">
@@ -7741,7 +7722,7 @@
       <c r="E56" s="54">
         <v>40</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="56">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7753,10 +7734,10 @@
       <c r="A57" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="51" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="13">
@@ -7765,7 +7746,7 @@
       <c r="E57" s="54">
         <v>15</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="56">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -7777,10 +7758,10 @@
       <c r="A58" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="51" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="13">
@@ -7789,7 +7770,7 @@
       <c r="E58" s="54">
         <v>8</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7801,10 +7782,10 @@
       <c r="A59" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D59" s="13">
@@ -7813,7 +7794,7 @@
       <c r="E59" s="54">
         <v>24</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="56">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -7825,10 +7806,10 @@
       <c r="A60" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="13">
@@ -7837,7 +7818,7 @@
       <c r="E60" s="54">
         <v>14</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7849,10 +7830,10 @@
       <c r="A61" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="51" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="13">
@@ -7861,7 +7842,7 @@
       <c r="E61" s="54">
         <v>33</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="56">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -7873,10 +7854,10 @@
       <c r="A62" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="51" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="13">
@@ -7885,7 +7866,7 @@
       <c r="E62" s="54">
         <v>1</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F62" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7897,10 +7878,10 @@
       <c r="A63" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="13">
@@ -7909,7 +7890,7 @@
       <c r="E63" s="54">
         <v>16</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -7921,10 +7902,10 @@
       <c r="A64" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="51" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="13">
@@ -7933,7 +7914,7 @@
       <c r="E64" s="54">
         <v>5</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7945,10 +7926,10 @@
       <c r="A65" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="51" t="s">
         <v>139</v>
       </c>
       <c r="D65" s="13">
@@ -7957,7 +7938,7 @@
       <c r="E65" s="54">
         <v>10</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7969,10 +7950,10 @@
       <c r="A66" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="51" t="s">
         <v>141</v>
       </c>
       <c r="D66" s="13">
@@ -7981,7 +7962,7 @@
       <c r="E66" s="54">
         <v>1</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7993,10 +7974,10 @@
       <c r="A67" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="51" t="s">
         <v>143</v>
       </c>
       <c r="D67" s="13">
@@ -8005,7 +7986,7 @@
       <c r="E67" s="54">
         <v>1</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8017,10 +7998,10 @@
       <c r="A68" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D68" s="13">
@@ -8029,7 +8010,7 @@
       <c r="E68" s="54">
         <v>15</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8041,10 +8022,10 @@
       <c r="A69" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="51" t="s">
         <v>147</v>
       </c>
       <c r="D69" s="13">
@@ -8053,7 +8034,7 @@
       <c r="E69" s="54">
         <v>5</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8065,10 +8046,10 @@
       <c r="A70" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="51" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="13">
@@ -8077,7 +8058,7 @@
       <c r="E70" s="54">
         <v>2</v>
       </c>
-      <c r="F70" s="55">
+      <c r="F70" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8089,10 +8070,10 @@
       <c r="A71" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="51" t="s">
         <v>151</v>
       </c>
       <c r="D71" s="13">
@@ -8101,7 +8082,7 @@
       <c r="E71" s="54">
         <v>2</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F71" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8113,10 +8094,10 @@
       <c r="A72" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="51" t="s">
         <v>154</v>
       </c>
       <c r="D72" s="13">
@@ -8125,7 +8106,7 @@
       <c r="E72" s="54">
         <v>59</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F72" s="56">
         <f ref="F72:F90" t="shared" si="1">+D72*E72</f>
         <v>59</v>
       </c>
@@ -8137,10 +8118,10 @@
       <c r="A73" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="51" t="s">
         <v>156</v>
       </c>
       <c r="D73" s="13">
@@ -8149,7 +8130,7 @@
       <c r="E73" s="54">
         <v>15</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="56">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -8161,10 +8142,10 @@
       <c r="A74" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="51" t="s">
         <v>158</v>
       </c>
       <c r="D74" s="13">
@@ -8173,7 +8154,7 @@
       <c r="E74" s="54">
         <v>2</v>
       </c>
-      <c r="F74" s="55">
+      <c r="F74" s="56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8185,10 +8166,10 @@
       <c r="A75" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="51" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="13">
@@ -8197,7 +8178,7 @@
       <c r="E75" s="54">
         <v>2</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F75" s="56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8209,10 +8190,10 @@
       <c r="A76" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="51" t="s">
         <v>163</v>
       </c>
       <c r="D76" s="13">
@@ -8221,7 +8202,7 @@
       <c r="E76" s="54">
         <v>4</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F76" s="56">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8233,10 +8214,10 @@
       <c r="A77" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="51" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="13">
@@ -8245,7 +8226,7 @@
       <c r="E77" s="54">
         <v>26</v>
       </c>
-      <c r="F77" s="55">
+      <c r="F77" s="56">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -8257,10 +8238,10 @@
       <c r="A78" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="51" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="13">
@@ -8269,7 +8250,7 @@
       <c r="E78" s="54">
         <v>17</v>
       </c>
-      <c r="F78" s="55">
+      <c r="F78" s="56">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -8281,10 +8262,10 @@
       <c r="A79" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="51" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="13">
@@ -8293,7 +8274,7 @@
       <c r="E79" s="54">
         <v>3</v>
       </c>
-      <c r="F79" s="55">
+      <c r="F79" s="56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8305,10 +8286,10 @@
       <c r="A80" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="51" t="s">
         <v>172</v>
       </c>
       <c r="D80" s="13">
@@ -8317,7 +8298,7 @@
       <c r="E80" s="54">
         <v>47</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="56">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -8329,19 +8310,19 @@
       <c r="A81" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="51" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="13">
         <v>1</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="54">
         <v>23</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="56">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -8353,19 +8334,19 @@
       <c r="A82" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="13">
         <v>5</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="54">
         <v>11</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="56">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -8377,19 +8358,19 @@
       <c r="A83" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="51" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="13">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="54">
         <v>2</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="56">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8401,19 +8382,19 @@
       <c r="A84" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="51" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="54">
         <v>29</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="56">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -8425,19 +8406,19 @@
       <c r="A85" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="51" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="13">
         <v>5</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="54">
         <v>18</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="56">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -8449,19 +8430,19 @@
       <c r="A86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="51" t="s">
         <v>186</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="54">
         <v>3</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8473,19 +8454,19 @@
       <c r="A87" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="51" t="s">
         <v>188</v>
       </c>
       <c r="D87" s="13">
         <v>1</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="54">
         <v>9</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="56">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8497,19 +8478,19 @@
       <c r="A88" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D88" s="13">
         <v>5</v>
       </c>
-      <c r="E88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="14">
+      <c r="E88" s="54">
+        <v>1</v>
+      </c>
+      <c r="F88" s="56">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8521,19 +8502,19 @@
       <c r="A89" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="51" t="s">
         <v>192</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="54">
         <v>28</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="56">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -8545,19 +8526,19 @@
       <c r="A90" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="51" t="s">
         <v>194</v>
       </c>
       <c r="D90" s="13">
         <v>5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="54">
         <v>19</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="56">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -8569,15 +8550,15 @@
       <c r="A91" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="49">
         <v>3040</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="52" t="s">
         <v>196</v>
       </c>
       <c r="D91" s="8"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="11">
+      <c r="E91" s="55"/>
+      <c r="F91" s="57">
         <f>SUM(F7:F90)</f>
         <v>2200</v>
       </c>
@@ -8595,20 +8576,20 @@
       <c r="A93" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C93" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="53" t="s">
-        <v>245</v>
-      </c>
       <c r="F93" s="53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>10</v>
@@ -8618,10 +8599,10 @@
       <c r="A94" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="51" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="0">
@@ -8630,7 +8611,7 @@
       <c r="E94" s="54">
         <v>6</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F94" s="56">
         <f>+D94*E94</f>
         <v>6</v>
       </c>
@@ -8642,10 +8623,10 @@
       <c r="A95" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="51" t="s">
         <v>202</v>
       </c>
       <c r="D95" s="0">
@@ -8654,7 +8635,7 @@
       <c r="E95" s="54">
         <v>118</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F95" s="56">
         <f ref="F95:F105" t="shared" si="2">+D95*E95</f>
         <v>118</v>
       </c>
@@ -8666,10 +8647,10 @@
       <c r="A96" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="0">
@@ -8678,7 +8659,7 @@
       <c r="E96" s="54">
         <v>45</v>
       </c>
-      <c r="F96" s="55">
+      <c r="F96" s="56">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
@@ -8690,10 +8671,10 @@
       <c r="A97" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D97" s="0">
@@ -8702,7 +8683,7 @@
       <c r="E97" s="54">
         <v>234</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="56">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
@@ -8714,10 +8695,10 @@
       <c r="A98" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D98" s="0">
@@ -8726,7 +8707,7 @@
       <c r="E98" s="54">
         <v>155</v>
       </c>
-      <c r="F98" s="55">
+      <c r="F98" s="56">
         <f t="shared" si="2"/>
         <v>775</v>
       </c>
@@ -8738,10 +8719,10 @@
       <c r="A99" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="51" t="s">
         <v>210</v>
       </c>
       <c r="D99" s="0">
@@ -8750,7 +8731,7 @@
       <c r="E99" s="54">
         <v>8</v>
       </c>
-      <c r="F99" s="55">
+      <c r="F99" s="56">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -8762,10 +8743,10 @@
       <c r="A100" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="51" t="s">
         <v>212</v>
       </c>
       <c r="D100" s="0">
@@ -8774,7 +8755,7 @@
       <c r="E100" s="54">
         <v>8</v>
       </c>
-      <c r="F100" s="55">
+      <c r="F100" s="56">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -8786,10 +8767,10 @@
       <c r="A101" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="51" t="s">
         <v>214</v>
       </c>
       <c r="D101" s="0">
@@ -8798,7 +8779,7 @@
       <c r="E101" s="54">
         <v>24</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F101" s="56">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -8810,10 +8791,10 @@
       <c r="A102" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="51" t="s">
         <v>216</v>
       </c>
       <c r="D102" s="0">
@@ -8822,7 +8803,7 @@
       <c r="E102" s="54">
         <v>18</v>
       </c>
-      <c r="F102" s="55">
+      <c r="F102" s="56">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -8834,10 +8815,10 @@
       <c r="A103" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="51" t="s">
         <v>218</v>
       </c>
       <c r="D103" s="0">
@@ -8846,7 +8827,7 @@
       <c r="E103" s="54">
         <v>9</v>
       </c>
-      <c r="F103" s="55">
+      <c r="F103" s="56">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -8858,10 +8839,10 @@
       <c r="A104" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="51" t="s">
         <v>220</v>
       </c>
       <c r="D104" s="0">
@@ -8870,7 +8851,7 @@
       <c r="E104" s="54">
         <v>13</v>
       </c>
-      <c r="F104" s="55">
+      <c r="F104" s="56">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8882,10 +8863,10 @@
       <c r="A105" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="51" t="s">
         <v>222</v>
       </c>
       <c r="D105" s="0">
@@ -8894,7 +8875,7 @@
       <c r="E105" s="54">
         <v>4</v>
       </c>
-      <c r="F105" s="55">
+      <c r="F105" s="56">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -8906,15 +8887,15 @@
       <c r="A106" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="49">
         <v>3040</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="52" t="s">
         <v>196</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="11">
+      <c r="E106" s="55"/>
+      <c r="F106" s="57">
         <f>SUM(F94:F105)</f>
         <v>1526</v>
       </c>
